--- a/trunk/Enterprise_Management_System/docs/init-sql/系统初始化设置.xlsx
+++ b/trunk/Enterprise_Management_System/docs/init-sql/系统初始化设置.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>分组名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,45 @@
   </si>
   <si>
     <t>tbCheckingInstanceController.do?tbCheckingInstance</t>
+  </si>
+  <si>
+    <t>montype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回款类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货款</t>
+  </si>
+  <si>
+    <t>初验款</t>
+  </si>
+  <si>
+    <t>终验款</t>
+  </si>
+  <si>
+    <t>操作系统首款</t>
+  </si>
+  <si>
+    <t>操作系统尾款</t>
+  </si>
+  <si>
+    <t>tbContractReceiveMoneyController.do?tbContractReceiveMoney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同回款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbPurchaseController.do?projectTracking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -561,6 +600,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -568,15 +616,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -588,8 +627,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="分组名称"/>
     <tableColumn id="2" name="分组编码"/>
@@ -599,8 +638,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:C14" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:C16" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C16"/>
   <tableColumns count="3">
     <tableColumn id="1" name="菜单名称" dataDxfId="2"/>
     <tableColumn id="2" name="菜单地址" dataDxfId="1"/>
@@ -895,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -936,6 +975,14 @@
       </c>
       <c r="B4" s="4" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -950,10 +997,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1121,6 +1168,51 @@
         <v>27</v>
       </c>
     </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1130,16 +1222,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1206,86 +1298,108 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5">
-      <c r="A7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="16.5">
       <c r="A8" s="9" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C8" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="10">
-        <v>2</v>
-      </c>
+      <c r="A9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="16.5">
       <c r="A10" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5">
       <c r="A11" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C11" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5">
       <c r="A12" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C12" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5">
       <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5">
+      <c r="A14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5">
+      <c r="A15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C15" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5">
-      <c r="A14" s="13" t="s">
+    <row r="16" spans="1:3" ht="16.5">
+      <c r="A16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B16" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C16" s="15">
         <v>7</v>
       </c>
     </row>
